--- a/biology/Botanique/Trichophorum_cespitosum/Trichophorum_cespitosum.xlsx
+++ b/biology/Botanique/Trichophorum_cespitosum/Trichophorum_cespitosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichophorum cespitosum (du grec ancien trikhos, «cheveu», et phorós, «porter», en référence à la finesse des brins végétaux surplombant ses inflorescences), le scirpe cespiteux, trichophore cespiteux ou encore souchet cespiteux, est une espèce de plante herbacée vivace de la famille des Cyperaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges atteignant 35 cm sont arrondies, sillonnées, sans feuilles sauf une seule, en ruban, courte, près de la base. L'épillet est unique, plus ou moins ovoïde, en haut de la tige, avec des écailles jaunâtres à brunes. Les fruits sont ternes, grisâtres à jaunâtres entourés par 4-6 soies qui les dépassent un peu. La floraison a lieu en mai-juin. 
 Au fil des années, l'accumulation des feuilles sèches mène à la formation de touradons, mottes arrondies surélevées par rapport au niveau du sol.
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trichophore cespiteux vit dans les tourbières et les marais en terrain acide.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2012) :
 Trichophorum cespitosum subsp. cespitosum
 Trichophorum cespitosum subsp. germanicum (Palla) Hegi
 Trichophorum cespitosum nothosubsp. foersteri Swan</t>
